--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_4.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_24</t>
+          <t>model_20_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999961380400632</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992259319667546</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9993873545939586</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999874595478664</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998185399855051</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G2" t="n">
-        <v>3.604970080550498e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007225585313748565</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002162802151013371</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>8.362628509501436e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001123214218054193</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002444462394599345</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006004140305281429</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00007129772191</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006259748988361116</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P2" t="n">
-        <v>94.46122398739793</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q2" t="n">
-        <v>139.5596295075214</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_23</t>
+          <t>model_20_4_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999620066914648</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992250948879878</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9993975131625361</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999877945787875</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998216173211063</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G3" t="n">
-        <v>3.54650858040511e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007233399076601145</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002126939686765837</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>8.139212391616496e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001104165905341001</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002446344662953744</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005955256988917531</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00007014149268</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006208784608017192</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P3" t="n">
-        <v>94.4939236878246</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.592329207948</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_22</t>
+          <t>model_20_4_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999626860910449</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992241649720274</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9994085918752903</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999881606797266</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998249737857676</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G4" t="n">
-        <v>3.483089611832907e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007242079433906349</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000208782886745814</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>7.895077162819626e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001083389819543168</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002448027533329298</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005901770591807943</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000068887216532</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006153021184250543</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P4" t="n">
-        <v>94.53001149114048</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q4" t="n">
-        <v>139.6284170112639</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_21</t>
+          <t>model_20_4_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999634134015845</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9992231610255895</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9994205317757541</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999988553612187</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998285902840522</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G5" t="n">
-        <v>3.415198365486385e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007251450833222429</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002045677825189202</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>7.633049274182548e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001061004158965514</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000245071505097452</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005843969854034486</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000067544489383</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O5" t="n">
-        <v>0.006092759749406048</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P5" t="n">
-        <v>94.56937977421681</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.6677852943402</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_20</t>
+          <t>model_20_4_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999642109875815</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9992220223608929</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9994337318459747</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999889809919554</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998325846939591</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G6" t="n">
-        <v>3.340747213658458e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007262079768349831</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001999078046613921</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>7.348050121180067e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001036279273912861</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002453316879412146</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005779919734441351</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000066072022926</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006025982883619808</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P6" t="n">
-        <v>94.6134619326765</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.7118674527999</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_19</t>
+          <t>model_20_4_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999650498344747</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9992207843492902</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9994477565411932</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999894287678106</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998368252445526</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G7" t="n">
-        <v>3.262444538292128e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007273636063235675</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001949567121229096</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>7.049449792211837e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001010030809575607</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002456626768995936</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005711781279331456</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000064523382508</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005954943633409837</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P7" t="n">
-        <v>94.66089738444623</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q7" t="n">
-        <v>139.7593029045697</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_18</t>
+          <t>model_20_4_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999659877031918</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9992193056612757</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9994635832750962</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999989913729354</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998415997037968</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G8" t="n">
-        <v>3.174898610322343e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007287438966782566</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001893694517286808</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>6.726052104062151e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>9.804775191637148e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000246038532373975</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005634623865283594</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000062791932569</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005874501468508092</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P8" t="n">
-        <v>94.71529953378442</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q8" t="n">
-        <v>139.8137050539078</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_17</t>
+          <t>model_20_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999669941285748</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9992176519003998</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9994807436862988</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999904390963251</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998467762458537</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G9" t="n">
-        <v>3.080953218514142e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007302876098641815</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001833113675750538</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>6.375709966171198e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>9.484353877061251e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002464065751436271</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005550633494038444</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000060933916477</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005786935453274998</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P9" t="n">
-        <v>94.77537285867052</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.8737783787939</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_16</t>
+          <t>model_20_4_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999680502822148</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9992158459113736</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9994990381071875</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999909853247079</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999852287404884</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98236591219573e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007319734213463919</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001768529476702286</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>6.011456349333696e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>9.143220200978114e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002468724020712369</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005461104203543208</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000058984094373</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0056935947155322</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P10" t="n">
-        <v>94.84041709836363</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q10" t="n">
-        <v>139.9388226184871</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_15</t>
+          <t>model_20_4_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999691752134148</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9992137962555312</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9995188121602823</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999915849159106</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998582492476142</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G11" t="n">
-        <v>2.877358522555178e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007338866851057868</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001698721780201531</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>5.611617616853964e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>8.774189781850356e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002474090400505226</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005364101530130817</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000056907298311</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005592462437489428</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P11" t="n">
-        <v>94.9121055427147</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.0105110628381</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_14</t>
+          <t>model_20_4_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999703445868481</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9992115352208311</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9995397858312873</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99999219611184</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998645594302328</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G12" t="n">
-        <v>2.768202645513518e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007359972617503411</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001624679111609025</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>5.204040246422305e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>8.383597570366238e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002481686481746084</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005261371157325358</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00005474845505</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005485358620032453</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P12" t="n">
-        <v>94.98945443962035</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.0878599597438</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_13</t>
+          <t>model_20_4_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999971586379216</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9992089420509824</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9995625936945789</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999928258892864</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999871402669181</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G13" t="n">
-        <v>2.652286778800592e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007384178719770534</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001544161253643074</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>4.78407174995714e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>7.960009855713226e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002489409152198757</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005150035707449602</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000052455915293</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005369283389559331</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P13" t="n">
-        <v>95.07500652338068</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.1734120435041</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999728477000726</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992061037244878</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9995864655673689</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999934770429632</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998785608408248</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G14" t="n">
-        <v>2.534548013402754e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007410673251716893</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001459887157551305</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>4.349848466508912e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>7.516928211081973e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002500740907781771</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005034429474531105</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000050127322943</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005248755559967601</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P14" t="n">
-        <v>95.16582028456919</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.2642258046926</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_11</t>
+          <t>model_20_4_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999741301179287</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9992029059758518</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9996116105514556</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999941285342189</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998860822408793</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G15" t="n">
-        <v>2.41483993570271e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007440522831584275</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001371118638055943</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>3.915400067742359e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>7.05136319366683e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002512797800687507</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004914102090619109</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000047759782285</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005123305590210448</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P15" t="n">
-        <v>95.26258491854877</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q15" t="n">
-        <v>140.3609904386722</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_10</t>
+          <t>model_20_4_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999754299346214</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991992773603854</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9996381496937911</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999948150056482</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998940200483971</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G16" t="n">
-        <v>2.293507752968826e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007474394364185855</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001277428367039207</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>3.457625062162008e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>6.560023088304139e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002526721260308812</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004789058104647328</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000045360120699</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004992938222879113</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P16" t="n">
-        <v>95.36568609902302</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.4640916191464</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_9</t>
+          <t>model_20_4_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999976722861427</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991951893714177</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999666011431501</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999955023524176</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999902331352411</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G17" t="n">
-        <v>2.172818710952539e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007512553946778533</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001179068980588515</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>2.999266334046888e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>6.045564028821277e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002543298844068913</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004661350352582971</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000042973178904</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004859793687417886</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P17" t="n">
-        <v>95.47380039035568</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.5722059104791</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_8</t>
+          <t>model_20_4_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999779289585663</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.999190679935929</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9996941973996928</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999961450895952</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999107193513853</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G18" t="n">
-        <v>2.060234837157711e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007554647547652473</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001079564973813198</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>2.57065561186156e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>5.526357649659067e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002564142967847901</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004538980983830744</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000040746538031</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004732214801298362</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P18" t="n">
-        <v>95.58021098009168</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.6786165002151</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_7</t>
+          <t>model_20_4_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999790967784887</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991854459127222</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9997238511735743</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999967802880748</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999195177233913</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G19" t="n">
-        <v>1.951223973536642e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00076035048568174</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I19" t="n">
-        <v>9.748792203509233e-05</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>2.147072087294352e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>4.981749706119334e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002587070084970549</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004417266092886687</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00003859056279</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004605318255462259</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P19" t="n">
-        <v>95.68893722113148</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.7873427412549</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_6</t>
+          <t>model_20_4_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999800951643247</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991797311871248</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9997533971515314</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999973618532282</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999282564654479</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G20" t="n">
-        <v>1.858029038152848e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007656849311794948</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I20" t="n">
-        <v>8.705740153346357e-05</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>1.759254066037862e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>4.440832779975071e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002617142332437133</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004310486095735431</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000036747388939</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004493992412767207</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P20" t="n">
-        <v>95.78681839197101</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q20" t="n">
-        <v>140.8852239120944</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_5</t>
+          <t>model_20_4_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999808892351975</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991734176259819</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997826260862516</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999978848899238</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999368732707491</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G21" t="n">
-        <v>1.783906007754743e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007715783633730773</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I21" t="n">
-        <v>7.673880577464874e-05</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>1.410465877583934e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.907463582611634e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002656267277833296</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00422363114837783</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000035281411943</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004403439870486065</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P21" t="n">
-        <v>95.86824023687302</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q21" t="n">
-        <v>140.9666457569965</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_4</t>
+          <t>model_20_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999981450995466</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991662209534067</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9998117757281009</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999983290769376</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999945424991026</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G22" t="n">
-        <v>1.731468152530972e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007782961413246015</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I22" t="n">
-        <v>6.644820252009714e-05</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>1.114258775497695e-06</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.378123064779742e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002698150585370105</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004161091386320387</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000034244316063</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004338237661282681</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P22" t="n">
-        <v>95.92791154654599</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q22" t="n">
-        <v>141.0263170666694</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_3</t>
+          <t>model_20_4_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999816016519885</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991586161219095</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9998387550569424</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999986903473513</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999533131501703</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G23" t="n">
-        <v>1.717405027458879e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007853949177137355</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I23" t="n">
-        <v>5.692377780785495e-05</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>8.733447933339087e-07</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.889856130059443e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002751710218075335</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004144158572567993</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000033966180944</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004320583982593092</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P23" t="n">
-        <v>95.94422203670393</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.0426275568274</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_2</t>
+          <t>model_20_4_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999813487007435</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991501746506937</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9998645149961991</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999989682938665</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999960808698703</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G24" t="n">
-        <v>1.741016915852484e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000793274660555931</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I24" t="n">
-        <v>4.782983023473762e-05</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>6.8799553901755e-07</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.425891288687759e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002837537753539127</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004172549479457953</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000034433167858</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004350183549166637</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P24" t="n">
-        <v>95.91691217612217</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q24" t="n">
-        <v>141.0153176962456</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_1</t>
+          <t>model_20_4_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999805600712072</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991407327365672</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9998883596949012</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999991606892535</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999677097413168</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G25" t="n">
-        <v>1.814632021390376e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008020882729408179</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I25" t="n">
-        <v>3.941201380544991e-05</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>5.596962455311521e-07</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.99872560126198e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002937853218529141</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004259849787715965</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00003588909931</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004441200412283745</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P25" t="n">
-        <v>95.83408552168834</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.9324910418118</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_20_4_0</t>
+          <t>model_20_4_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999791056290737</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991306665177231</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999095136272208</v>
+        <v>0.9999999999997352</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999992308363912</v>
+        <v>0.9999905011343228</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999737821479628</v>
+        <v>0.9999931658025812</v>
       </c>
       <c r="G26" t="n">
-        <v>1.950397810283686e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008114846463759251</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I26" t="n">
-        <v>3.194410988058221e-05</v>
+        <v>8.756010848999381e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>5.12918470182099e-07</v>
+        <v>1.357546553520946e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.622851417538216e-05</v>
+        <v>6.787732811384783e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00030494947984741</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004416330841641833</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000038574223249</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004604343188635673</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P26" t="n">
-        <v>95.68978421585427</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.7881897359777</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
   </sheetData>
